--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4D9FC-C3D4-42F0-A7AA-19F35995B3BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
+    <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -89,12 +90,28 @@
   </si>
   <si>
     <t>Delete without delete reason</t>
+  </si>
+  <si>
+    <t>CEP Logic</t>
+  </si>
+  <si>
+    <t>Updated Value</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [PARAMETER] as Parameter
+      ,[VALUE] as Value
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[IVR_GENERIC_CONFIG]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,13 +160,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -157,6 +184,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,18 +461,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,24 +485,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -479,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,40 +525,47 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -536,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,28 +590,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,10 +630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A66B6A-71E3-481E-81BD-E5C740F7FA1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -600,140 +649,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -741,4 +790,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -106,6 +105,15 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[IVR_GENERIC_CONFIG]</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Module 2</t>
   </si>
 </sst>
 </file>
@@ -461,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +511,21 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="13640" windowHeight="6500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Select Value</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Search Column</t>
   </si>
   <si>
@@ -98,13 +95,20 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Updated Parameter</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>CEP logic</t>
   </si>
   <si>
     <t>SELECT [PARAMETER] as Parameter
       ,[VALUE] as Value
-      ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[IVR_GENERIC_CONFIG]</t>
+  FROM [IVR_GENERIC_CONFIG]</t>
   </si>
   <si>
     <t>Module</t>
@@ -183,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -197,6 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,17 +484,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,7 +507,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -512,19 +517,19 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -535,28 +540,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -568,27 +574,33 @@
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -599,25 +611,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -628,23 +642,25 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,26 +673,26 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -691,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -708,13 +724,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,13 +793,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,19 +810,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -820,22 +836,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="13640" windowHeight="6500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -474,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,19 +486,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -505,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -517,17 +518,17 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -546,18 +547,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -580,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -613,20 +614,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -644,7 +645,7 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -672,19 +673,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,17 +840,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M24"/>
+  <oleSize ref="A1:Q10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Module 2</t>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -673,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q10"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -122,6 +121,15 @@
   </si>
   <si>
     <t>deleted</t>
+  </si>
+  <si>
+    <t>Terminate after KA Module</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Order Take</t>
   </si>
 </sst>
 </file>
@@ -191,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -206,6 +214,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -509,30 +518,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -546,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,11 +605,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -603,8 +620,8 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>4</v>
+      <c r="G2" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +635,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,21 +665,21 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -674,7 +691,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -827,6 +844,26 @@
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +636,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -122,9 +121,6 @@
   </si>
   <si>
     <t>deleted</t>
-  </si>
-  <si>
-    <t>Terminate after KA Module</t>
   </si>
   <si>
     <t>Mo</t>
@@ -137,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +148,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="OCMFont"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +217,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +502,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -511,7 +514,7 @@
     <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -519,15 +522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>34</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -539,17 +542,17 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -565,10 +568,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -579,7 +582,7 @@
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -602,15 +605,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -622,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -635,11 +638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -648,7 +651,7 @@
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -666,18 +669,18 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -698,7 +701,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -709,7 +712,7 @@
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -732,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -801,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -824,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -847,22 +850,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
@@ -877,21 +880,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -217,7 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +501,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,8 +522,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
+      <c r="A2" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -568,7 +567,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -647,7 +646,7 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="9"/>
     </row>

--- a/ocms/src/test/resources/TestData/IvrConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/IvrConfigData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DFAA3-EE23-4F61-8A29-BD23C4112AB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>deleted</t>
-  </si>
-  <si>
-    <t>Terminate after KA Module</t>
   </si>
   <si>
     <t>Mo</t>
@@ -136,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,23 +492,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -519,15 +516,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -539,17 +536,17 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -561,25 +558,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -602,15 +599,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -622,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -632,23 +629,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -666,21 +663,21 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -691,25 +688,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -732,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -801,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -824,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -847,22 +844,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
@@ -874,24 +871,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
